--- a/day09_excel_screenshot_isExecutor/ulkeler.xlsx
+++ b/day09_excel_screenshot_isExecutor/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400AE3C4-C419-054C-BB1B-34E715287A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C9920-FFD5-5441-B44B-66D9A4818B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36300" yWindow="4000" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,12 +1744,22 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2172,16 +2182,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,11 +2204,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2211,11 +2221,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2326,11 +2336,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2358,7 +2368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2399,11 +2409,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4875,14 +4885,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="0">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
